--- a/datos_sigmoid_verifbounds_target1_tolper1_mix.xlsx
+++ b/datos_sigmoid_verifbounds_target1_tolper1_mix.xlsx
@@ -1,46 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\OneDrive\DOCUME~1\MobaXterm\slash\pablo_desktopsm6qdlg\RemoteFiles\329362_2_41\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE70D62A-9DDA-41F7-93D7-E3AA7015E33B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="1">
-  <si>
-    <t>-</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -59,21 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -361,205 +408,233 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1">
+      <c r="A1" t="n">
         <v>2</v>
       </c>
-      <c r="B1">
+      <c r="B1" t="n">
         <v>5</v>
       </c>
-      <c r="C1">
-        <v>5.5529117584228512E-3</v>
-      </c>
-      <c r="D1">
-        <v>18.392652797698979</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>16.058140000000002</v>
-      </c>
-      <c r="H1">
-        <v>15.48795</v>
-      </c>
-      <c r="I1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
+      <c r="C1" t="n">
+        <v>0.005729913711547852</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4.3806312084198</v>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G1" t="n">
+        <v>17.6595</v>
+      </c>
+      <c r="H1" t="n">
+        <v>18.24231</v>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>5.186128616333008E-3</v>
-      </c>
-      <c r="D2">
-        <v>2.1104062080383299</v>
-      </c>
-      <c r="E2">
-        <v>18.34237186908722</v>
-      </c>
-      <c r="F2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>15.76</v>
-      </c>
-      <c r="H2">
-        <v>4.7237600000000004</v>
-      </c>
-      <c r="I2">
-        <v>13.90612</v>
-      </c>
-      <c r="J2" t="s">
-        <v>0</v>
+      <c r="C2" t="n">
+        <v>0.005787420272827149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.450017833709717</v>
+      </c>
+      <c r="E2" t="n">
+        <v>66.99694032669068</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>17.33022</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5.322660000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>15.72421</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>5.16667366027832E-3</v>
-      </c>
-      <c r="D3">
-        <v>1.013348770141602</v>
-      </c>
-      <c r="E3">
-        <v>1.317942428588867</v>
-      </c>
-      <c r="F3">
-        <v>1.6037444591522221</v>
-      </c>
-      <c r="G3">
-        <v>13.1168</v>
-      </c>
-      <c r="H3">
-        <v>4.4799999999999953E-3</v>
-      </c>
-      <c r="I3">
-        <v>3.840000000000043E-3</v>
-      </c>
-      <c r="J3">
-        <v>7.0800000000001972E-3</v>
+      <c r="C3" t="n">
+        <v>0.005801630020141601</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2975710868835449</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8852831363677979</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8179649591445923</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.42026</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.005920000000000014</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.004940000000000078</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.01015000000000015</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4">
-        <v>5.4147720336914064E-3</v>
-      </c>
-      <c r="D4">
-        <v>15.35301969051361</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0.63140999999999992</v>
-      </c>
-      <c r="H4">
-        <v>0.51883000000000001</v>
-      </c>
-      <c r="I4" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>0.006251025199890137</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.96094257831573</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6936600000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.57101</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>5.5037498474121097E-3</v>
-      </c>
-      <c r="D5">
-        <v>5.0711607933044432E-2</v>
-      </c>
-      <c r="E5">
-        <v>2.7369379997253421E-2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>12.69544</v>
-      </c>
-      <c r="H5">
-        <v>-2E+20</v>
-      </c>
-      <c r="I5">
-        <v>-2E+20</v>
-      </c>
-      <c r="J5" t="s">
-        <v>0</v>
+      <c r="C5" t="n">
+        <v>0.006251811981201172</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05351901054382324</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.05959963798522949</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>13.95616</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.00200000000000018</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.00199999999999978</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>5.5983543395996104E-3</v>
-      </c>
-      <c r="D6">
-        <v>10.886232900619509</v>
-      </c>
-      <c r="E6">
-        <v>11.93541991710663</v>
-      </c>
-      <c r="F6">
-        <v>36.346621298789977</v>
-      </c>
-      <c r="G6">
-        <v>13.566929999999999</v>
-      </c>
-      <c r="H6">
-        <v>0.15495</v>
-      </c>
-      <c r="I6">
-        <v>9.6929999999999988E-2</v>
-      </c>
-      <c r="J6">
-        <v>0.21195999999999979</v>
+      <c r="C6" t="n">
+        <v>0.00632936954498291</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.475630617141723</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.439960837364197</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.701632475852966</v>
+      </c>
+      <c r="G6" t="n">
+        <v>14.91569</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.2772399999999998</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.1814200000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.4036699999999999</v>
       </c>
     </row>
   </sheetData>
